--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_inputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusk\Documents\MATLAB\DBF_2023\2024-25_Optimizer\optimizerV2_recent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusk\Documents\GitHub\DBF_MATLAB\MATLAB\optimizerV2_recent_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B0CC3-3771-4B77-988C-CA22BE2147EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB6303F-BE17-47FC-AEE3-680055928E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="2964" windowWidth="11556" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
